--- a/吐槽日记.xlsx
+++ b/吐槽日记.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView windowWidth="28800" windowHeight="13460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="公司的缺点" sheetId="1" r:id="rId1"/>
+    <sheet name="好公司" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -47,15 +48,21 @@
   </si>
   <si>
     <r>
-      <t>中科超精</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
+      <t>中科超精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -225,12 +232,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>已经申请仲裁，强制要求加班，不加班就开除，开除理由乱写，通篇各种“严重”</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -240,6 +254,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>加班不超过晚上12点早上迟去1个小时，加班晚上有餐补，交通补贴，加班超过12点调休，给员工过生日，平时有聚餐，有奶茶（人事小姐姐在输入？别洗了别洗了）</t>
@@ -248,6 +263,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -257,6 +273,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>入职就交五险一金</t>
@@ -265,6 +282,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -274,6 +292,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>加班不超过晚上12点早上迟去1个小时，加班晚上有餐补，交通补贴，加班超过12点调休，给员工过生日，平时有聚餐，有奶茶。流程完善，公司氛围挺好(公司超棒，快来在招人)</t>
@@ -282,6 +301,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -291,6 +311,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>这明显hr了，别祸害人了，多谢</t>
@@ -299,6 +320,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -308,6 +330,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>有奶茶这也值得写？这不都是职位简介写烂的东西吗</t>
@@ -316,6 +339,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -325,6 +349,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>这hr开了吧，解释一大堆加班补偿不就变相承认加班严重，来点有技术的洗白</t>
@@ -455,12 +480,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">合肥腾讯只有审核吧 </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -470,6 +502,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>腾讯合肥有csig客户端 算法 前端马上就有啦~</t>
@@ -479,9 +512,6 @@
     <t>乐堂动漫-市场运营部</t>
   </si>
   <si>
-    <r>
-      <t>试用期6个月，不给交社保公积金，总想着以低工资找高能力人才；早晨8点半上班，晚上正常6点下班，每周三晚上加班到9点，运营部总经理聂威伟，人拽的一批，沟通时候动不动对你翻白眼，一副死鱼脸从不正眼看你，脾气大的一批，考核严厉，部门氛围差。</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -489,6 +519,15 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
+      <t>试用期6个月，不给交社保公积金，总想着以低工资找高能力人才；早晨8点半上班，晚上正常6点下班，每周三晚上加班到9点，运营部总经理聂威伟，人拽的一批，沟通时候动不动对你翻白眼，一副死鱼脸从不正眼看你，脾气大的一批，考核严厉，部门氛围差。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -711,12 +750,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>实际就是少发三个月(因为离职后不发)</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -726,6 +772,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>其他毛病一堆,(试用期无社保,公积金说有实际没交或者少交),项目管理混乱,任务管理没有,老总临时任务一堆,产品口头需求一堆,每周维护更新必加班,-周六周日加班还算按照工作日算薪水么；行政菜的一笔；人挺轻松 没啥活干；在里面混了一段时间</t>
@@ -766,12 +813,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>拖欠工资，说是项目回款困难每年换一批人</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -781,6 +835,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>洗脑洗脑洗脑 白嫖白嫖白嫖 欠薪欠薪欠薪 画大饼</t>
@@ -793,9 +848,6 @@
     <t>安徽广晟信息科技有限公司</t>
   </si>
   <si>
-    <r>
-      <t>拖欠工资说是项目回款困难、没有五险、没有公积金</t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -803,6 +855,15 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
+      <t>拖欠工资说是项目回款困难、没有五险、没有公积金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -890,12 +951,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>删别人评论,忒没素质了 百得思维有什么好删的啊，大家不都知道的公司吗？笑死了还删呢。不去你公司人事还骂我可还行？</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -905,6 +973,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>亲身经历，低人一等，失业在家也别去百得！</t>
@@ -918,6 +987,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>外包，长期外派</t>
     </r>
     <r>
@@ -953,11 +1028,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,6 +1063,18 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Microsoft YaHei"/>
@@ -1049,16 +1136,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1068,8 +1150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,16 +1195,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,28 +1234,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1152,8 +1250,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,41 +1273,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1226,19 +1313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,13 +1367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,19 +1385,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,73 +1469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,19 +1487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,17 +1516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,11 +1534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,26 +1564,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,17 +1605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,152 +1618,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,11 +1779,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1713,17 +1803,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2049,8 +2139,8 @@
   <sheetPr/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2081,7 +2171,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2098,1084 +2188,1084 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="247" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" ht="53" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" ht="36" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" ht="31" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" ht="247" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="31" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="31" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" ht="121" customHeight="1" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" ht="46" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" ht="76" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="36" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" ht="106" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" ht="88" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" ht="31" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" ht="31" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" ht="61" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" ht="46" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" ht="352" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" ht="46" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" ht="31" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" ht="46" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" ht="122" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" ht="71" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" ht="71" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" ht="61" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" ht="61" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" ht="46" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" ht="107" spans="1:6">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" ht="92" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" ht="18" spans="1:6">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" ht="31" spans="1:6">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" ht="61" spans="1:6">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" ht="53" spans="1:6">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" ht="289" spans="1:6">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" ht="76" spans="1:6">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" ht="53" spans="1:6">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" ht="176" spans="1:6">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" ht="88" spans="1:6">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" ht="92" spans="1:6">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" ht="61" spans="1:6">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" ht="36" spans="1:6">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" ht="71" spans="1:6">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" ht="46" spans="1:6">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" ht="259" spans="1:6">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57" ht="46" spans="1:6">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" ht="31" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" ht="92" spans="1:6">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" ht="61" spans="1:6">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" ht="61" spans="1:6">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" ht="31" spans="1:6">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" ht="36" spans="1:6">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" ht="31" spans="1:6">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" ht="124" spans="1:6">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="13"/>
+      <c r="C67" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" ht="36" spans="1:6">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="13"/>
+      <c r="C71" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" ht="46" spans="1:6">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" ht="31" spans="1:6">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
     </row>
     <row r="77" ht="159" spans="1:6">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" ht="183" spans="1:6">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" ht="61" spans="1:6">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
     </row>
     <row r="82" ht="92" spans="1:6">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" ht="71" spans="1:6">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" ht="107" spans="1:6">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
     </row>
     <row r="85" ht="76" spans="1:6">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" ht="106" spans="1:6">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" ht="46" spans="1:6">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" ht="137" spans="1:6">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3190,4 +3280,283 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.5357142857143" customWidth="1"/>
+    <col min="2" max="2" width="10.7053571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="26.1875" customWidth="1"/>
+    <col min="5" max="5" width="17.8482142857143" customWidth="1"/>
+    <col min="6" max="6" width="24.6964285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="46" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>